--- a/data/trans_camb/CoPsoQ_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Edad-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-3.902642240559848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4499512430380381</v>
+        <v>0.4499512430380326</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-4.141740950248759</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.840202288944154</v>
+        <v>2.840202288944149</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.74384928831995</v>
+        <v>-18.39204784461267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.78639488860663</v>
+        <v>-21.77326199895759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.499909630583</v>
+        <v>-16.52156713616527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.33044623746909</v>
+        <v>-19.9098049411894</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.97374228653898</v>
+        <v>-13.24438961654604</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.7009658732676</v>
+        <v>-15.6070614754114</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.33237971529997</v>
+        <v>10.98888988236292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>40.13533459588394</v>
+        <v>40.79049672134892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.431415990194819</v>
+        <v>8.531401519133345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.42182374111754</v>
+        <v>25.02122209414478</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.612623490988782</v>
+        <v>5.913033588597232</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.31861891697017</v>
+        <v>24.98189028080821</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>-0.1490760320518977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.01718757236617912</v>
+        <v>0.0171875723661789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.145938033632762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1000771275042889</v>
+        <v>0.1000771275042887</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4871019168516039</v>
+        <v>-0.4881537685639877</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6856873501569337</v>
+        <v>-0.6457699055543985</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4999874367860353</v>
+        <v>-0.5030712735915968</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6892556348495751</v>
+        <v>-0.6996121169664252</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4128033162593289</v>
+        <v>-0.3960907711045993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.486420176534885</v>
+        <v>-0.5224151715625649</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4031083584760939</v>
+        <v>0.5298375262862507</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.632227366545639</v>
+        <v>1.54112327514996</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3985896936449486</v>
+        <v>0.4172969655530679</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.251066163817751</v>
+        <v>1.168364804420112</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2091356536247278</v>
+        <v>0.2794310500533387</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.016054639487107</v>
+        <v>0.977598640487899</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-5.015391178894809</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.6488845184402348</v>
+        <v>-0.6488845184402375</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.04515623864500551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.310007554676252</v>
+        <v>9.310007554676247</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-2.894002635571352</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.639096472170422</v>
+        <v>3.639096472170417</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.44314012637626</v>
+        <v>-11.42476756440354</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.28118254439192</v>
+        <v>-11.18180576885798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.424512422439159</v>
+        <v>-7.445360541591921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.987470656742629</v>
+        <v>-1.698740555491352</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.772951919739985</v>
+        <v>-7.497437663961443</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.832241773217872</v>
+        <v>-4.404496292938767</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.524450440876226</v>
+        <v>1.288022866254998</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.94404436715656</v>
+        <v>11.29822870408622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.886265585534047</v>
+        <v>6.660833228323537</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.95966524153105</v>
+        <v>22.15167791551904</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.880111125667568</v>
+        <v>1.533629349978872</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.40694688170866</v>
+        <v>12.02155049668638</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>-0.2016715494910346</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.02609199195174693</v>
+        <v>-0.02609199195174704</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.002105366679211371</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.4340702475889116</v>
+        <v>0.4340702475889113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1234958005532861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1552911965584992</v>
+        <v>0.155291196558499</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4089894535126179</v>
+        <v>-0.4024430449253284</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4207320035145752</v>
+        <v>-0.4175562825853196</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2549955645775218</v>
+        <v>-0.3009645135439832</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1012793875544248</v>
+        <v>-0.09972277836368863</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3013049215522081</v>
+        <v>-0.2958847351284719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1941834815389148</v>
+        <v>-0.1719163975803962</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07266801108842748</v>
+        <v>0.05550370970503674</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5318496724663023</v>
+        <v>0.491175142638539</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4540104568586407</v>
+        <v>0.3688225149357292</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.097379347505987</v>
+        <v>1.151219656286052</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09129444528548294</v>
+        <v>0.07476753357868826</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5477399612325653</v>
+        <v>0.5423712800488941</v>
       </c>
     </row>
     <row r="16">
@@ -932,13 +932,13 @@
         <v>-0.07109804443650447</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.308459836054372</v>
+        <v>9.308459836054366</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.536083619893525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.130056753286014</v>
+        <v>5.130056753286024</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.580711270937781</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.518266968858343</v>
+        <v>-5.818468725802788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7009735421018443</v>
+        <v>-0.9827669466283474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.307575380231961</v>
+        <v>-5.493864703389545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.812588192101242</v>
+        <v>-3.932934569457322</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.754632446000745</v>
+        <v>-4.344910705773209</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5478511306715135</v>
+        <v>0.5072627486141554</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.668188451373832</v>
+        <v>5.426863832683513</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.4056733638605</v>
+        <v>19.57370373108202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.100957332591845</v>
+        <v>8.623378048211441</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.54230498516335</v>
+        <v>14.81095487286149</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.362867127284025</v>
+        <v>4.690513460940275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.13046260976466</v>
+        <v>13.83642547370653</v>
       </c>
     </row>
     <row r="19">
@@ -1010,13 +1010,13 @@
         <v>-0.003170674767842757</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.4151182914181765</v>
+        <v>0.4151182914181763</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.07043232661613086</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.2352227626981491</v>
+        <v>0.2352227626981496</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02618478030720718</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2134560820588306</v>
+        <v>-0.2284437786952523</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0436931478721806</v>
+        <v>-0.05172819988564641</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2077574589158173</v>
+        <v>-0.2150116489190322</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1573162226788216</v>
+        <v>-0.1581173005215915</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1557521025222107</v>
+        <v>-0.1738616008773416</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02156029878711107</v>
+        <v>0.02151112831055816</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2973678313205749</v>
+        <v>0.2910457016813152</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9487797047856384</v>
+        <v>0.9663311749057709</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5261238629271505</v>
+        <v>0.4656346798417969</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7681294829905558</v>
+        <v>0.7976814842122917</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2817316399960932</v>
+        <v>0.2404078512780736</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6926905686742396</v>
+        <v>0.6889749074241764</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-5.107696292322439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.417147513567707</v>
+        <v>7.417147513567713</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.107627568417319</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.592371497230019</v>
+        <v>-1.607620761306091</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.30736911713393</v>
+        <v>15.65983231534808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.39002552100045</v>
+        <v>-14.15672820798533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.408216688411336</v>
+        <v>-1.139350559804143</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.174366583708582</v>
+        <v>-4.105542884700434</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.19687494679696</v>
+        <v>10.70231729949427</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.07268135681358</v>
+        <v>11.10023098915497</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>34.52660485585845</v>
+        <v>34.71136137856979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.231233130223285</v>
+        <v>3.759739092152973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.03135087699411</v>
+        <v>17.48452022365075</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.012150008106078</v>
+        <v>6.199480005272263</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.01704070013167</v>
+        <v>24.34477720055084</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.1843727195682926</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2677370736727721</v>
+        <v>0.2677370736727723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05012360223570449</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06418355149699861</v>
+        <v>-0.07641430720398774</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7093138256475594</v>
+        <v>0.7275925450735431</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4471643300331036</v>
+        <v>-0.4276193838893751</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07865859444816774</v>
+        <v>-0.04215620157974843</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1643333572123567</v>
+        <v>-0.1655445902827651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4104020431696126</v>
+        <v>0.4257550237434401</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.729401230166899</v>
+        <v>0.7080063223454793</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.143724970725503</v>
+        <v>2.160594874649295</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1409002745631663</v>
+        <v>0.1731846712633481</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7490473498064874</v>
+        <v>0.7485334105987685</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3190378631039598</v>
+        <v>0.3243755494590074</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.211473852311892</v>
+        <v>1.235399854661158</v>
       </c>
     </row>
     <row r="28">
@@ -1252,19 +1252,19 @@
         <v>2.015542332794104</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4.510550834670535</v>
+        <v>4.51055083467054</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>5.414582445345589</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.2189591983812994</v>
+        <v>-0.2189591983813077</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>3.422981650083923</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.807064808904025</v>
+        <v>2.807064808904028</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.288046923756928</v>
+        <v>-7.462705191968673</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.527400578329517</v>
+        <v>-7.823267636413267</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.409700024617287</v>
+        <v>-8.989519290656201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.63849893181979</v>
+        <v>-15.03403514918549</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.744397391883958</v>
+        <v>-4.846130065671974</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.849756073112813</v>
+        <v>-6.870399533939155</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.03543276853753</v>
+        <v>11.97882213488966</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.28392325265744</v>
+        <v>17.46709650501833</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.89082195904552</v>
+        <v>19.3228735435813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.34728195009367</v>
+        <v>13.85535397120329</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.3274717846878</v>
+        <v>11.75779340083548</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.17690714670649</v>
+        <v>11.90385913711735</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>0.09395016153394889</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.2102496050960763</v>
+        <v>0.2102496050960765</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.2412519363047036</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.009755937990494972</v>
+        <v>-0.009755937990495343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1573279612008203</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1290190332550023</v>
+        <v>0.1290190332550025</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3286623816415299</v>
+        <v>-0.3001615882203523</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3004849080228515</v>
+        <v>-0.3086709383903427</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2837141387851617</v>
+        <v>-0.3085862079922072</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4739013667049131</v>
+        <v>-0.5105184789707693</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1909614443725686</v>
+        <v>-0.1856363980030614</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2683305378867394</v>
+        <v>-0.2749709204914963</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7216088914497892</v>
+        <v>0.6964105004393037</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9852560558680227</v>
+        <v>1.05163081336165</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.151298336724779</v>
+        <v>1.292295905237894</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.011341087134096</v>
+        <v>0.9433700937130595</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6194306961305017</v>
+        <v>0.662984526106382</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6310700966009418</v>
+        <v>0.6575370325882252</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>-0.5355518241398322</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6.34236082233395</v>
+        <v>6.342360822333945</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.234730624460841</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.945055445125106</v>
+        <v>-3.605212720101626</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.927574039242646</v>
+        <v>4.538988827018112</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.479847121013803</v>
+        <v>-4.269366497434801</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.044836774872466</v>
+        <v>1.575186021485133</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.930193968728966</v>
+        <v>-2.887286219571706</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.680111266446197</v>
+        <v>4.697515375666368</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.279926005586945</v>
+        <v>2.896808194712396</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.16992017636073</v>
+        <v>15.24992342869331</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.593286544013318</v>
+        <v>3.505741041823866</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.05480393084661</v>
+        <v>11.29638871194421</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.088399857363724</v>
+        <v>2.444101849593088</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.45996370888659</v>
+        <v>12.3910636264611</v>
       </c>
     </row>
     <row r="37">
@@ -1490,13 +1490,13 @@
         <v>-0.002467215248603273</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.4535431406945102</v>
+        <v>0.4535431406945105</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.02273436223717931</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.2692354350681601</v>
+        <v>0.2692354350681598</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.01024276490038253</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1254914238768594</v>
+        <v>-0.145531085091077</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2095897251355737</v>
+        <v>0.1911012339893397</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1746374120873187</v>
+        <v>-0.1703973086467838</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.03661563565321553</v>
+        <v>0.06414560885402447</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.120950162937589</v>
+        <v>-0.1197591797432484</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.193468405320304</v>
+        <v>0.1968483044491781</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1617051787931479</v>
+        <v>0.1361566783842119</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.76229944602424</v>
+        <v>0.7129588846524921</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1663505261872872</v>
+        <v>0.1586443666413866</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5476017488881878</v>
+        <v>0.5184970956417744</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.09373787511953513</v>
+        <v>0.1134364982817648</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5648269671802937</v>
+        <v>0.571720847091405</v>
       </c>
     </row>
     <row r="40">
